--- a/medicine/Autisme/Pensée_visuelle/Pensée_visuelle.xlsx
+++ b/medicine/Autisme/Pensée_visuelle/Pensée_visuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_visuelle</t>
+          <t>Pensée_visuelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pensée visuelle est un mode de pensée qui reposerait essentiellement sur les processus de traitement de l'information visuelle par le cerveau, en opposition à un mode de pensée analogue au traitement du langage, dit pensée linguistique ou encore pensée auditive. Bien que la dichotomie entre ces deux « modes » de pensée soit très souvent reprise dans la psychologie populaire, cette théorie est loin de faire l'unanimité parmi les psychologues scientifiques, à la fois parce que ses concepts sont trop flous et parce que les données expérimentales la justifiant sont trop rares.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_visuelle</t>
+          <t>Pensée_visuelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la psychologie comprend toute une série de travaux sur cette question. Ils se sont intéressés à cette forme de pensée depuis les aspects les plus fréquents aux plus anormaux ou extrêmes, dans l'autisme par exemple.
 Il est ainsi possible de citer, entre autres :
@@ -525,7 +539,7 @@
 Ronald Dell Davis en 1995 pour la dyslexie ;
 Temple Grandin pour l'autisme en 1997.
 Les dates sont celles de la parution des ouvrages, mais le principe leur est largement antérieur puisque R. Davis travaillait déjà officiellement sur le phénomène depuis plus de dix ans.
-Des recherches ont commencé en 1984 aux Pays-Bas sous le nom de beelddenken (pensée visuelle ou par images) avec Maria J. Krabbe[1].
+Des recherches ont commencé en 1984 aux Pays-Bas sous le nom de beelddenken (pensée visuelle ou par images) avec Maria J. Krabbe.
 La pensée visuelle est une approche globale moins sensible aux lacunes, mais qui supporte mal la segmentation. À titre d'exemple, l'expérience suivante permet de comprendre comment se pose le problème de la pensée visuelle.
 Imaginez un dessinateur qui caricature l'un de vos proches. Il est probable que vous commenciez à rire avant que celui-ci n'ait fini son dessin. Vous n'avez pas eu besoin de tous les détails pour réaliser l'ensemble. Par contre, si le dessin est découpé comme pour un puzzle, il vous sera difficile de le comprendre sans l'avoir reconstitué.
 L'image ne signifie pas nécessairement un dessin : un poème peut être tout à fait représentatif de la pensée visuelle. C'est l'hémisphère droit du cerveau qui semble en être le siège préférentiel.
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_visuelle</t>
+          <t>Pensée_visuelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,58 +573,201 @@
           <t>Penseurs visuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que la notion de « penseur visuel » existe, il serait faux d'imaginer une séparation absolue. Il existe plutôt habituellement une façon de penser qui domine naturellement l'autre, comme on a un côté du corps qui domine l'autre. On parle alors de droitiers et de gauchers, mais cela peut être fonction des situations : l'écriture, le sport…
 Les deux formes de réflexion, visuelle et linguistique, sont donc pratiquées par l'ensemble de la population. D'après les premières études, la forme linguistique est favorisée à l'âge adulte alors que les jeunes enfants âgés entre 2  et   7 ans, selon les travaux de Maria J. Krabbe, utiliseraient de préférence l'imagination visuelle.
 Aux Pays-Bas, la fondation Maria J. Krabbe a étudié le phénomène et ses chercheurs ont imaginé une méthode pour mettre en évidence la pensée visuelle chez les enfants. Cette méthode, nommée « le wereldspel du monde », est basée sur l'expérience suivante : les enfants sont d'abord amenés à construire un village avec des blocs en bois et d'autres jouets. Plus tard, il leur est demandé de le reconstruire à l'identique. Les enfants qui y parviennent sont considérés comme des penseurs visuels.
 Certaines formes de la dyslexie, de l'hyperactivité et de l'autisme y sont rattachés : il semble en effet qu'une majorité de dyslexiques et d'autistes favoriseraient la « pensée visuelle », mais par des processus qui ne sont pas encore clairement établis.
-Les caractéristiques
-Les caractéristiques qui révèlent souvent les penseurs visuels sont : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pensée_visuelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pens%C3%A9e_visuelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Penseurs visuels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les caractéristiques qui révèlent souvent les penseurs visuels sont : 
 les problèmes de mémorisation de suites de lettres abstraites, comme les noms ;
 les problèmes pour expliquer les concepts qu'ils ont imaginés ;
 l'écriture de textes dans un style parfois très tortueux ;
 la facilité et le plaisir à lire ou à utiliser des constructions narratives élaborées ; facilité qu'ils perdent dès qu'il leur est demandé de lire le même texte à haute voix, car ils doivent alors traduire les mots en sons ;
 des difficultés pour retenir (abstraitement ?) les lieux et les positions relatives des objets qu'ils ont placés quelque part ;
-la capacité de tirer des conclusions apparemment intuitives que la pensée linéaire aurait normalement beaucoup de mal à atteindre.
-Pensée non linéaire
-Contrairement aux penseurs linguistiques, les penseurs visuels peuvent facilement arriver intuitivement et empiriquement à une conclusion. Ils ne raisonnent pas à l'aide du langage mais en manipulant des symboles logiques ou graphiques d'une façon non linéaire. Ils « voient » la ou les réponses au problème (car la pensée visuelle en arborescence permet aussi de voir plusieurs solutions en même temps, ce qui est plus difficile avec un mode de pensée verbale). La démonstration la plus explicite de l'existence des penseurs visuels se trouverait dans les arts graphiques modernes et dans toutes les professions où l'on utilise la perception visuelle (notamment en architecture et en ingénierie).
-Intégration
-Les penseurs visuels vivant dans un monde majoritairement peuplé de penseurs linguistiques, ils éprouvent quelques difficultés d'intégration principalement dues à l'effort supplémentaire qu'ils doivent fournir pour apprendre à lire aussi bien[Information douteuse] que leurs homologues linguistiques (retard dans l'apprentissage des langues).[réf. nécessaire]
-La dyslexie
-En psychologie, réfléchir de manière visuelle est souvent confondu avec la dyslexie. Effectivement, les personnes qui « pensent en images » ont plus de difficultés à apprendre au sein du système éducatif moderne.[réf. nécessaire] Cependant les penseurs visuels, à moins évidemment d'être également dyslexiques, ne souffrent pas de tous les symptômes qui sont normalement associés à la dyslexie.
+la capacité de tirer des conclusions apparemment intuitives que la pensée linéaire aurait normalement beaucoup de mal à atteindre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pensée_visuelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pens%C3%A9e_visuelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Penseurs visuels</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pensée non linéaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux penseurs linguistiques, les penseurs visuels peuvent facilement arriver intuitivement et empiriquement à une conclusion. Ils ne raisonnent pas à l'aide du langage mais en manipulant des symboles logiques ou graphiques d'une façon non linéaire. Ils « voient » la ou les réponses au problème (car la pensée visuelle en arborescence permet aussi de voir plusieurs solutions en même temps, ce qui est plus difficile avec un mode de pensée verbale). La démonstration la plus explicite de l'existence des penseurs visuels se trouverait dans les arts graphiques modernes et dans toutes les professions où l'on utilise la perception visuelle (notamment en architecture et en ingénierie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pensée_visuelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pens%C3%A9e_visuelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Penseurs visuels</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Intégration</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les penseurs visuels vivant dans un monde majoritairement peuplé de penseurs linguistiques, ils éprouvent quelques difficultés d'intégration principalement dues à l'effort supplémentaire qu'ils doivent fournir pour apprendre à lire aussi bien[Information douteuse] que leurs homologues linguistiques (retard dans l'apprentissage des langues).[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pensée_visuelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pens%C3%A9e_visuelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Penseurs visuels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La dyslexie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En psychologie, réfléchir de manière visuelle est souvent confondu avec la dyslexie. Effectivement, les personnes qui « pensent en images » ont plus de difficultés à apprendre au sein du système éducatif moderne.[réf. nécessaire] Cependant les penseurs visuels, à moins évidemment d'être également dyslexiques, ne souffrent pas de tous les symptômes qui sont normalement associés à la dyslexie.
 Il y a aussi une forme d'autisme associée à la pensée par les images (voir le syndrome d'Asperger).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pens%C3%A9e_visuelle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pensée_visuelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Autisme/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pens%C3%A9e_visuelle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>La littérature sur la pensée visuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe relativement peu de livres sur ce phénomène. Aux Pays-Bas, il y a le carnet amusant des enfants « suis-je bien un penseur visuel ? ». Et un extrait de bande dessinée Tom Pouce de Marten Toonder, dans laquelle Wammes fait figurer de façon plastique la différence entre un penseur visuel et un penseur linguistique. Le livre Le don de dyslexie de Ronald D. Davis et Eldon M. Braun décrit la relation entre la pensée visuelle et la dyslexie[pertinence contestée]. Le livre Penser en images de Temple Grandin est un ouvrage de référence sur le sujet et est axée sur la réflexion des autistes par les images[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe relativement peu de livres sur ce phénomène. Aux Pays-Bas, il y a le carnet amusant des enfants « suis-je bien un penseur visuel ? ». Et un extrait de bande dessinée Tom Pouce de Marten Toonder, dans laquelle Wammes fait figurer de façon plastique la différence entre un penseur visuel et un penseur linguistique. Le livre Le don de dyslexie de Ronald D. Davis et Eldon M. Braun décrit la relation entre la pensée visuelle et la dyslexie[pertinence contestée]. Le livre Penser en images de Temple Grandin est un ouvrage de référence sur le sujet et est axée sur la réflexion des autistes par les images.
 </t>
         </is>
       </c>
